--- a/ToeicWeb/wwwroot/adminn/upload/part 7/ETS 2024 - TEST 1 - PART 7/excel/ETS2024TEST1PART7.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/part 7/ETS 2024 - TEST 1 - PART 7/excel/ETS2024TEST1PART7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412C7E7-0B25-47F1-A682-B151EB1E2FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B1C2A-D6C5-4842-A39B-7394EAEAA24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E282893-D052-4CB1-8E3F-D8A9E93E04DA}"/>
   </bookViews>
@@ -679,20 +679,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0365F94-54A7-4643-9F29-B554E8196BB4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="6.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="5" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.296875" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" customWidth="1"/>
+    <col min="9" max="9" width="13.8984375" customWidth="1"/>
     <col min="10" max="10" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,25 +704,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -736,25 +736,25 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>28</v>
@@ -769,25 +769,25 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
@@ -799,25 +799,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>39</v>
@@ -832,25 +832,25 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
@@ -862,25 +862,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
@@ -895,25 +895,25 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
@@ -925,25 +925,25 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>61</v>
@@ -958,25 +958,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="248.4" x14ac:dyDescent="0.25">
@@ -988,25 +988,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
